--- a/biology/Zoologie/Andrena_cressonii/Andrena_cressonii.xlsx
+++ b/biology/Zoologie/Andrena_cressonii/Andrena_cressonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrène à pois
-Andrena cressonii, communément appelé Andrène à pois[2], est une espèce d'andrènes de la famille des Andrenidae. Cette espèce est présente en Amérique du Nord[3],[4],[5].
+Andrena cressonii, communément appelé Andrène à pois, est une espèce d'andrènes de la famille des Andrenidae. Cette espèce est présente en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, cressonii, lui a été donné en l'honneur de Ezra Townsend Cresson (d)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, cressonii, lui a été donné en l'honneur de Ezra Townsend Cresson (d).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Charles Robertson, « Descriptions of New Species of North American Bees », Transactions of the American Entomological Society, vol. 18,‎ 1891, p. 49-66 (ISSN 0002-8320 et 2162-3139, JSTOR 25076556, lire en ligne)</t>
         </is>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 mai 2020)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 mai 2020) :
 sous-espèce Andrena cressonii cressonii Robertson, 1891
 sous-espèce Andrena cressonii infasciata Lanham, 1949
 sous-espèce Andrena cressonii kansensis Cockerell, 1899</t>
